--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Oxt-Oxtr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Oxt-Oxtr.xlsx
@@ -531,22 +531,22 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.092559</v>
+        <v>0.262426</v>
       </c>
       <c r="H2">
-        <v>0.277677</v>
+        <v>0.7872779999999999</v>
       </c>
       <c r="I2">
-        <v>0.07709384600221278</v>
+        <v>0.2164351829578579</v>
       </c>
       <c r="J2">
-        <v>0.07709384600221279</v>
+        <v>0.2164351829578578</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,7 +555,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.05993300000000001</v>
+        <v>0.05993299999999999</v>
       </c>
       <c r="N2">
         <v>0.179799</v>
@@ -567,16 +567,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.005547338547000001</v>
+        <v>0.015727977458</v>
       </c>
       <c r="R2">
-        <v>0.049926046923</v>
+        <v>0.141551797122</v>
       </c>
       <c r="S2">
-        <v>0.07709384600221278</v>
+        <v>0.2164351829578579</v>
       </c>
       <c r="T2">
-        <v>0.07709384600221279</v>
+        <v>0.2164351829578578</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>1.292475</v>
       </c>
       <c r="I3">
-        <v>0.3588409144859314</v>
+        <v>0.3553218343373718</v>
       </c>
       <c r="J3">
-        <v>0.3588409144859314</v>
+        <v>0.3553218343373717</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -617,7 +617,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.05993300000000001</v>
+        <v>0.05993299999999999</v>
       </c>
       <c r="N3">
         <v>0.179799</v>
@@ -635,10 +635,10 @@
         <v>0.232385712525</v>
       </c>
       <c r="S3">
-        <v>0.3588409144859314</v>
+        <v>0.3553218343373718</v>
       </c>
       <c r="T3">
-        <v>0.3588409144859314</v>
+        <v>0.3553218343373717</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.2904703333333333</v>
+        <v>0.1998913333333333</v>
       </c>
       <c r="H4">
-        <v>0.8714109999999999</v>
+        <v>0.599674</v>
       </c>
       <c r="I4">
-        <v>0.2419373064338574</v>
+        <v>0.1648598740280695</v>
       </c>
       <c r="J4">
-        <v>0.2419373064338575</v>
+        <v>0.1648598740280695</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -679,7 +679,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.05993300000000001</v>
+        <v>0.05993299999999999</v>
       </c>
       <c r="N4">
         <v>0.179799</v>
@@ -691,16 +691,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.01740875848766667</v>
+        <v>0.01198008728066667</v>
       </c>
       <c r="R4">
-        <v>0.156678826389</v>
+        <v>0.107820785526</v>
       </c>
       <c r="S4">
-        <v>0.2419373064338574</v>
+        <v>0.1648598740280695</v>
       </c>
       <c r="T4">
-        <v>0.2419373064338575</v>
+        <v>0.1648598740280695</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.3867473333333333</v>
+        <v>0.31935</v>
       </c>
       <c r="H5">
-        <v>1.160242</v>
+        <v>0.95805</v>
       </c>
       <c r="I5">
-        <v>0.3221279330779984</v>
+        <v>0.2633831086767009</v>
       </c>
       <c r="J5">
-        <v>0.3221279330779984</v>
+        <v>0.2633831086767008</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,7 +741,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.05993300000000001</v>
+        <v>0.05993299999999999</v>
       </c>
       <c r="N5">
         <v>0.179799</v>
@@ -753,16 +753,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.02317892792866667</v>
+        <v>0.01913960355</v>
       </c>
       <c r="R5">
-        <v>0.208610351358</v>
+        <v>0.17225643195</v>
       </c>
       <c r="S5">
-        <v>0.3221279330779984</v>
+        <v>0.2633831086767009</v>
       </c>
       <c r="T5">
-        <v>0.3221279330779984</v>
+        <v>0.2633831086767008</v>
       </c>
     </row>
   </sheetData>
